--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H2">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I2">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J2">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N2">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O2">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P2">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q2">
-        <v>325.798717392879</v>
+        <v>2751.552923560461</v>
       </c>
       <c r="R2">
-        <v>1303.194869571516</v>
+        <v>11006.21169424184</v>
       </c>
       <c r="S2">
-        <v>0.00675496439148297</v>
+        <v>0.0288500529270054</v>
       </c>
       <c r="T2">
-        <v>0.003316622941323343</v>
+        <v>0.01496160534199423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H3">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I3">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J3">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.16829</v>
       </c>
       <c r="O3">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P3">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q3">
-        <v>151.6409489317267</v>
+        <v>411.82282786767</v>
       </c>
       <c r="R3">
-        <v>909.8456935903599</v>
+        <v>2470.93696720602</v>
       </c>
       <c r="S3">
-        <v>0.003144055380332476</v>
+        <v>0.004317965421925218</v>
       </c>
       <c r="T3">
-        <v>0.002315551703651361</v>
+        <v>0.003358938093805874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H4">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I4">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J4">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N4">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O4">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P4">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q4">
-        <v>1045.219662805605</v>
+        <v>4314.202567814616</v>
       </c>
       <c r="R4">
-        <v>6271.317976833629</v>
+        <v>25885.2154068877</v>
       </c>
       <c r="S4">
-        <v>0.02167111540533037</v>
+        <v>0.04523444610260987</v>
       </c>
       <c r="T4">
-        <v>0.01596046574457334</v>
+        <v>0.03518780011409187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H5">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I5">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J5">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N5">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O5">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P5">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q5">
-        <v>167.844831040854</v>
+        <v>534.286614916728</v>
       </c>
       <c r="R5">
-        <v>671.379324163416</v>
+        <v>2137.146459666912</v>
       </c>
       <c r="S5">
-        <v>0.00348001939985607</v>
+        <v>0.005601999142575988</v>
       </c>
       <c r="T5">
-        <v>0.001708656257665194</v>
+        <v>0.002905190521122274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H6">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I6">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J6">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N6">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O6">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P6">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q6">
-        <v>301.337323138414</v>
+        <v>5294.159100823137</v>
       </c>
       <c r="R6">
-        <v>1808.023938830484</v>
+        <v>31764.95460493882</v>
       </c>
       <c r="S6">
-        <v>0.006247792821020093</v>
+        <v>0.05550929766057203</v>
       </c>
       <c r="T6">
-        <v>0.004601409822890575</v>
+        <v>0.04318058998938732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H7">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I7">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J7">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N7">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O7">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P7">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q7">
-        <v>1228.200333161886</v>
+        <v>1788.438676968123</v>
       </c>
       <c r="R7">
-        <v>7369.201998971316</v>
+        <v>10730.63206180874</v>
       </c>
       <c r="S7">
-        <v>0.02546495450475152</v>
+        <v>0.01875179286774133</v>
       </c>
       <c r="T7">
-        <v>0.01875457383980505</v>
+        <v>0.01458698836975182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>408.782051</v>
       </c>
       <c r="I8">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J8">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N8">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O8">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P8">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q8">
-        <v>1968.118588097166</v>
+        <v>6120.485034516306</v>
       </c>
       <c r="R8">
-        <v>11808.711528583</v>
+        <v>36722.91020709784</v>
       </c>
       <c r="S8">
-        <v>0.04080608753526873</v>
+        <v>0.06417333123880214</v>
       </c>
       <c r="T8">
-        <v>0.03005309833367061</v>
+        <v>0.04992032724716158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>408.782051</v>
       </c>
       <c r="I9">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J9">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>20.16829</v>
       </c>
       <c r="O9">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P9">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q9">
         <v>916.0483279291989</v>
@@ -1013,10 +1013,10 @@
         <v>8244.434951362789</v>
       </c>
       <c r="S9">
-        <v>0.01899293491870113</v>
+        <v>0.009604773551022513</v>
       </c>
       <c r="T9">
-        <v>0.02098203632963065</v>
+        <v>0.0112073059683712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>408.782051</v>
       </c>
       <c r="I10">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J10">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N10">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O10">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P10">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q10">
-        <v>6314.071042003819</v>
+        <v>9596.403553093778</v>
       </c>
       <c r="R10">
-        <v>56826.63937803438</v>
+        <v>86367.63197784399</v>
       </c>
       <c r="S10">
-        <v>0.1309131152981077</v>
+        <v>0.1006183628325093</v>
       </c>
       <c r="T10">
-        <v>0.1446234482963136</v>
+        <v>0.117406284730208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>408.782051</v>
       </c>
       <c r="I11">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J11">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N11">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O11">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P11">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q11">
-        <v>1013.934414877329</v>
+        <v>1188.453692000504</v>
       </c>
       <c r="R11">
-        <v>6083.606489263974</v>
+        <v>7130.722152003024</v>
       </c>
       <c r="S11">
-        <v>0.02102246111526643</v>
+        <v>0.01246094582514619</v>
       </c>
       <c r="T11">
-        <v>0.01548274116127434</v>
+        <v>0.009693348956526147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>408.782051</v>
       </c>
       <c r="I12">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J12">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N12">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O12">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P12">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q12">
-        <v>1820.349667739722</v>
+        <v>11776.19418819233</v>
       </c>
       <c r="R12">
-        <v>16383.1470096575</v>
+        <v>105985.747693731</v>
       </c>
       <c r="S12">
-        <v>0.03774231305767087</v>
+        <v>0.1234734839002913</v>
       </c>
       <c r="T12">
-        <v>0.04169500854555132</v>
+        <v>0.1440747255206242</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>408.782051</v>
       </c>
       <c r="I13">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J13">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N13">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O13">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P13">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q13">
-        <v>7419.439600457661</v>
+        <v>3978.157957205295</v>
       </c>
       <c r="R13">
-        <v>66774.95640411896</v>
+        <v>35803.42161484766</v>
       </c>
       <c r="S13">
-        <v>0.1538313309116347</v>
+        <v>0.04171101585385827</v>
       </c>
       <c r="T13">
-        <v>0.1699418540441188</v>
+        <v>0.04867039440778958</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H14">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I14">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J14">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N14">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O14">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P14">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q14">
-        <v>867.151761191016</v>
+        <v>2539.329426324994</v>
       </c>
       <c r="R14">
-        <v>5202.910567146096</v>
+        <v>15235.97655794996</v>
       </c>
       <c r="S14">
-        <v>0.017979135448202</v>
+        <v>0.02662488797554417</v>
       </c>
       <c r="T14">
-        <v>0.01324137544703817</v>
+        <v>0.02071145591168148</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H15">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I15">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J15">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.16829</v>
       </c>
       <c r="O15">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P15">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q15">
-        <v>403.6102934569067</v>
+        <v>380.0594988678467</v>
       </c>
       <c r="R15">
-        <v>3632.49264111216</v>
+        <v>3420.53548981062</v>
       </c>
       <c r="S15">
-        <v>0.008368274688600684</v>
+        <v>0.003984926680443547</v>
       </c>
       <c r="T15">
-        <v>0.009244671467792077</v>
+        <v>0.00464980171911519</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H16">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I16">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J16">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N16">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O16">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P16">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q16">
-        <v>2781.975566651419</v>
+        <v>3981.454050101531</v>
       </c>
       <c r="R16">
-        <v>25037.78009986277</v>
+        <v>35833.08645091378</v>
       </c>
       <c r="S16">
-        <v>0.05768023287840217</v>
+        <v>0.04174557541246043</v>
       </c>
       <c r="T16">
-        <v>0.06372099661988184</v>
+        <v>0.04871072014220994</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H17">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I17">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J17">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N17">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O17">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P17">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q17">
-        <v>446.738839270416</v>
+        <v>493.0778222481121</v>
       </c>
       <c r="R17">
-        <v>2680.433035622496</v>
+        <v>2958.466933488672</v>
       </c>
       <c r="S17">
-        <v>0.009262482601873043</v>
+        <v>0.005169924644074546</v>
       </c>
       <c r="T17">
-        <v>0.006821685617554282</v>
+        <v>0.004021675750554103</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H18">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I18">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J18">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N18">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O18">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P18">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q18">
-        <v>802.044871640656</v>
+        <v>4885.827881867765</v>
       </c>
       <c r="R18">
-        <v>7218.403844765904</v>
+        <v>43972.45093680989</v>
       </c>
       <c r="S18">
-        <v>0.01662923841953276</v>
+        <v>0.05122794178413571</v>
       </c>
       <c r="T18">
-        <v>0.01837079346326679</v>
+        <v>0.05977519559985831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H19">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I19">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J19">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N19">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O19">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P19">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q19">
-        <v>3269.000229710544</v>
+        <v>1650.498858559609</v>
       </c>
       <c r="R19">
-        <v>29421.0020673949</v>
+        <v>14854.48972703648</v>
       </c>
       <c r="S19">
-        <v>0.06777798367086826</v>
+        <v>0.01730549284285297</v>
       </c>
       <c r="T19">
-        <v>0.07487626961386573</v>
+        <v>0.02019287099201455</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H20">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I20">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J20">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N20">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O20">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P20">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q20">
-        <v>348.3994185507983</v>
+        <v>1209.172785548782</v>
       </c>
       <c r="R20">
-        <v>1393.597674203193</v>
+        <v>4836.691142195127</v>
       </c>
       <c r="S20">
-        <v>0.007223557186341006</v>
+        <v>0.01267818567554089</v>
       </c>
       <c r="T20">
-        <v>0.003546697524029439</v>
+        <v>0.00657489298234215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H21">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I21">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J21">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>20.16829</v>
       </c>
       <c r="O21">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P21">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q21">
-        <v>162.160302100255</v>
+        <v>180.9759687562066</v>
       </c>
       <c r="R21">
-        <v>972.96181260153</v>
+        <v>1085.85581253724</v>
       </c>
       <c r="S21">
-        <v>0.003362158927956804</v>
+        <v>0.001897534382284946</v>
       </c>
       <c r="T21">
-        <v>0.002476181838996022</v>
+        <v>0.001476088828456044</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H22">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I22">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J22">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N22">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O22">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P22">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q22">
-        <v>1117.726692398862</v>
+        <v>1895.880792144059</v>
       </c>
       <c r="R22">
-        <v>6706.36015439317</v>
+        <v>11375.28475286435</v>
       </c>
       <c r="S22">
-        <v>0.02317444361654622</v>
+        <v>0.01987832424675772</v>
       </c>
       <c r="T22">
-        <v>0.01706764541526345</v>
+        <v>0.01546331524898808</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H23">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I23">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J23">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N23">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O23">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P23">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q23">
-        <v>179.4882497062545</v>
+        <v>234.792806966736</v>
       </c>
       <c r="R23">
-        <v>717.9529988250181</v>
+        <v>939.1712278669438</v>
       </c>
       <c r="S23">
-        <v>0.003721428817024107</v>
+        <v>0.002461804332335115</v>
       </c>
       <c r="T23">
-        <v>0.001827185973712332</v>
+        <v>0.001276688987115587</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H24">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I24">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J24">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N24">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O24">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P24">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q24">
-        <v>322.2411340633845</v>
+        <v>2326.523706764561</v>
       </c>
       <c r="R24">
-        <v>1933.446804380307</v>
+        <v>13959.14224058736</v>
       </c>
       <c r="S24">
-        <v>0.006681203055334157</v>
+        <v>0.02439361841866295</v>
       </c>
       <c r="T24">
-        <v>0.004920610245606963</v>
+        <v>0.01897575504800571</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H25">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I25">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J25">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N25">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O25">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P25">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q25">
-        <v>1313.400756644141</v>
+        <v>785.9312311588926</v>
       </c>
       <c r="R25">
-        <v>7880.404539864844</v>
+        <v>4715.587386953356</v>
       </c>
       <c r="S25">
-        <v>0.02723146184820394</v>
+        <v>0.008240494820859418</v>
       </c>
       <c r="T25">
-        <v>0.02005558116754853</v>
+        <v>0.006410267165421984</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H26">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I26">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J26">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N26">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O26">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P26">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q26">
-        <v>392.189603915593</v>
+        <v>2136.134787944148</v>
       </c>
       <c r="R26">
-        <v>2353.137623493558</v>
+        <v>12816.80872766489</v>
       </c>
       <c r="S26">
-        <v>0.008131483237133041</v>
+        <v>0.02239738918474484</v>
       </c>
       <c r="T26">
-        <v>0.005988720803310019</v>
+        <v>0.01742289165921395</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H27">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I27">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J27">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>20.16829</v>
       </c>
       <c r="O27">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P27">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q27">
-        <v>182.5421664481311</v>
+        <v>319.7136647981811</v>
       </c>
       <c r="R27">
-        <v>1642.87949803318</v>
+        <v>2877.42298318363</v>
       </c>
       <c r="S27">
-        <v>0.003784747356185369</v>
+        <v>0.003352200160111407</v>
       </c>
       <c r="T27">
-        <v>0.004181118235063467</v>
+        <v>0.003911506363165833</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H28">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I28">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J28">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N28">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O28">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P28">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q28">
-        <v>1258.21331907269</v>
+        <v>3349.278913894847</v>
       </c>
       <c r="R28">
-        <v>11323.91987165421</v>
+        <v>30143.51022505363</v>
       </c>
       <c r="S28">
-        <v>0.02608723028512264</v>
+        <v>0.03511721439402155</v>
       </c>
       <c r="T28">
-        <v>0.02881930654345214</v>
+        <v>0.0409764336847681</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H29">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I29">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J29">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N29">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O29">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P29">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q29">
-        <v>202.048056947418</v>
+        <v>414.786942705688</v>
       </c>
       <c r="R29">
-        <v>1212.288341684508</v>
+        <v>2488.721656234128</v>
       </c>
       <c r="S29">
-        <v>0.004189173735764875</v>
+        <v>0.004349044188110782</v>
       </c>
       <c r="T29">
-        <v>0.003085266386025336</v>
+        <v>0.003383114214142343</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H30">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I30">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J30">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N30">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O30">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P30">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q30">
-        <v>362.7434949786046</v>
+        <v>4110.056299969589</v>
       </c>
       <c r="R30">
-        <v>3264.691454807441</v>
+        <v>36990.50669972629</v>
       </c>
       <c r="S30">
-        <v>0.007520960829528768</v>
+        <v>0.04309397096155439</v>
       </c>
       <c r="T30">
-        <v>0.008308619706979626</v>
+        <v>0.05028409211238796</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H31">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I31">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J31">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N31">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O31">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P31">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q31">
-        <v>1478.481579198162</v>
+        <v>1388.432706950428</v>
       </c>
       <c r="R31">
-        <v>13306.33421278346</v>
+        <v>12495.89436255385</v>
       </c>
       <c r="S31">
-        <v>0.03065417353655113</v>
+        <v>0.0145577272885135</v>
       </c>
       <c r="T31">
-        <v>0.03386453886941997</v>
+        <v>0.01698664763513436</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H32">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I32">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J32">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N32">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O32">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P32">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q32">
-        <v>978.2783442229564</v>
+        <v>2628.996477798361</v>
       </c>
       <c r="R32">
-        <v>5869.670065337739</v>
+        <v>15773.97886679017</v>
       </c>
       <c r="S32">
-        <v>0.02028318414837758</v>
+        <v>0.02756504767905726</v>
       </c>
       <c r="T32">
-        <v>0.01493827427597136</v>
+        <v>0.02144280457565094</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H33">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I33">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J33">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>20.16829</v>
       </c>
       <c r="O33">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P33">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q33">
-        <v>455.3334574931322</v>
+        <v>393.4798980860944</v>
       </c>
       <c r="R33">
-        <v>4098.00111743819</v>
+        <v>3541.319082774849</v>
       </c>
       <c r="S33">
-        <v>0.009440679558931131</v>
+        <v>0.00412563966634788</v>
       </c>
       <c r="T33">
-        <v>0.01042938768177703</v>
+        <v>0.004813992314382798</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H34">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I34">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J34">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N34">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O34">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P34">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q34">
-        <v>3138.489215860532</v>
+        <v>4122.044412875364</v>
       </c>
       <c r="R34">
-        <v>28246.40294274479</v>
+        <v>37098.39971587828</v>
       </c>
       <c r="S34">
-        <v>0.0650720268816337</v>
+        <v>0.04321966641478923</v>
       </c>
       <c r="T34">
-        <v>0.07188692205377768</v>
+        <v>0.05043075953726294</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H35">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I35">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J35">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N35">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O35">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P35">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q35">
-        <v>503.988980407869</v>
+        <v>510.4890466483599</v>
       </c>
       <c r="R35">
-        <v>3023.933882447214</v>
+        <v>3062.93427989016</v>
       </c>
       <c r="S35">
-        <v>0.01044948133497279</v>
+        <v>0.005352481461779195</v>
       </c>
       <c r="T35">
-        <v>0.007695893163596448</v>
+        <v>0.004163686394307409</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H36">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I36">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J36">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N36">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O36">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P36">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q36">
-        <v>904.8279253258622</v>
+        <v>5058.352870406759</v>
       </c>
       <c r="R36">
-        <v>8143.451327932761</v>
+        <v>45525.17583366083</v>
       </c>
       <c r="S36">
-        <v>0.0187602961267189</v>
+        <v>0.05303686757580842</v>
       </c>
       <c r="T36">
-        <v>0.02072503362804995</v>
+        <v>0.06188593613045582</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H37">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I37">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J37">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N37">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O37">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P37">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q37">
-        <v>3687.926698774521</v>
+        <v>1708.780137299163</v>
       </c>
       <c r="R37">
-        <v>33191.34028897069</v>
+        <v>15379.02123569247</v>
       </c>
       <c r="S37">
-        <v>0.07646381707077197</v>
+        <v>0.01791657248514964</v>
       </c>
       <c r="T37">
-        <v>0.08447175723755322</v>
+        <v>0.0209059077425304</v>
       </c>
     </row>
   </sheetData>
